--- a/2022/Samsung/APRIL/06.04.2022/SAMSUNG Bank Statement April-2022.xlsx
+++ b/2022/Samsung/APRIL/06.04.2022/SAMSUNG Bank Statement April-2022.xlsx
@@ -3293,6 +3293,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3326,12 +3332,6 @@
     <xf numFmtId="1" fontId="36" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3416,38 +3416,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="45" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="37" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="42" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3461,34 +3488,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="41" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="45" fillId="41" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="41" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="42" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="42" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6237,67 +6237,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="368" t="s">
+      <c r="A1" s="370" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="368"/>
-      <c r="C1" s="368"/>
-      <c r="D1" s="368"/>
-      <c r="E1" s="368"/>
-      <c r="F1" s="368"/>
-      <c r="G1" s="368"/>
-      <c r="H1" s="368"/>
-      <c r="I1" s="368"/>
-      <c r="J1" s="368"/>
-      <c r="K1" s="368"/>
-      <c r="L1" s="368"/>
-      <c r="M1" s="368"/>
-      <c r="N1" s="368"/>
-      <c r="O1" s="368"/>
-      <c r="P1" s="368"/>
-      <c r="Q1" s="368"/>
+      <c r="B1" s="370"/>
+      <c r="C1" s="370"/>
+      <c r="D1" s="370"/>
+      <c r="E1" s="370"/>
+      <c r="F1" s="370"/>
+      <c r="G1" s="370"/>
+      <c r="H1" s="370"/>
+      <c r="I1" s="370"/>
+      <c r="J1" s="370"/>
+      <c r="K1" s="370"/>
+      <c r="L1" s="370"/>
+      <c r="M1" s="370"/>
+      <c r="N1" s="370"/>
+      <c r="O1" s="370"/>
+      <c r="P1" s="370"/>
+      <c r="Q1" s="370"/>
     </row>
     <row r="2" spans="1:24" s="62" customFormat="1" ht="18">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="371" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
-      <c r="J2" s="369"/>
-      <c r="K2" s="369"/>
-      <c r="L2" s="369"/>
-      <c r="M2" s="369"/>
-      <c r="N2" s="369"/>
-      <c r="O2" s="369"/>
-      <c r="P2" s="369"/>
-      <c r="Q2" s="369"/>
+      <c r="B2" s="371"/>
+      <c r="C2" s="371"/>
+      <c r="D2" s="371"/>
+      <c r="E2" s="371"/>
+      <c r="F2" s="371"/>
+      <c r="G2" s="371"/>
+      <c r="H2" s="371"/>
+      <c r="I2" s="371"/>
+      <c r="J2" s="371"/>
+      <c r="K2" s="371"/>
+      <c r="L2" s="371"/>
+      <c r="M2" s="371"/>
+      <c r="N2" s="371"/>
+      <c r="O2" s="371"/>
+      <c r="P2" s="371"/>
+      <c r="Q2" s="371"/>
     </row>
     <row r="3" spans="1:24" s="63" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="370" t="s">
+      <c r="A3" s="372" t="s">
         <v>241</v>
       </c>
-      <c r="B3" s="371"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
-      <c r="F3" s="371"/>
-      <c r="G3" s="371"/>
-      <c r="H3" s="371"/>
-      <c r="I3" s="371"/>
-      <c r="J3" s="371"/>
-      <c r="K3" s="371"/>
-      <c r="L3" s="371"/>
-      <c r="M3" s="371"/>
-      <c r="N3" s="371"/>
-      <c r="O3" s="371"/>
-      <c r="P3" s="371"/>
-      <c r="Q3" s="372"/>
+      <c r="B3" s="373"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="373"/>
+      <c r="G3" s="373"/>
+      <c r="H3" s="373"/>
+      <c r="I3" s="373"/>
+      <c r="J3" s="373"/>
+      <c r="K3" s="373"/>
+      <c r="L3" s="373"/>
+      <c r="M3" s="373"/>
+      <c r="N3" s="373"/>
+      <c r="O3" s="373"/>
+      <c r="P3" s="373"/>
+      <c r="Q3" s="374"/>
       <c r="S3" s="47"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6306,49 +6306,49 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="64" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="373" t="s">
+      <c r="A4" s="375" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="375" t="s">
+      <c r="B4" s="377" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="377" t="s">
+      <c r="C4" s="366" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="377" t="s">
+      <c r="D4" s="366" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="377" t="s">
+      <c r="E4" s="366" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="377" t="s">
+      <c r="F4" s="366" t="s">
         <v>136</v>
       </c>
-      <c r="G4" s="377" t="s">
+      <c r="G4" s="366" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="377" t="s">
+      <c r="H4" s="366" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="377" t="s">
+      <c r="I4" s="366" t="s">
         <v>254</v>
       </c>
-      <c r="J4" s="377" t="s">
+      <c r="J4" s="366" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="377" t="s">
+      <c r="K4" s="366" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="377" t="s">
+      <c r="L4" s="366" t="s">
         <v>220</v>
       </c>
-      <c r="M4" s="377" t="s">
+      <c r="M4" s="366" t="s">
         <v>219</v>
       </c>
-      <c r="N4" s="377" t="s">
+      <c r="N4" s="366" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="366" t="s">
+      <c r="O4" s="368" t="s">
         <v>37</v>
       </c>
       <c r="P4" s="379" t="s">
@@ -6364,21 +6364,21 @@
       <c r="W4" s="66"/>
     </row>
     <row r="5" spans="1:24" s="64" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="374"/>
-      <c r="B5" s="376"/>
-      <c r="C5" s="378"/>
-      <c r="D5" s="378"/>
-      <c r="E5" s="378"/>
-      <c r="F5" s="378"/>
-      <c r="G5" s="378"/>
-      <c r="H5" s="378"/>
-      <c r="I5" s="378"/>
-      <c r="J5" s="378"/>
-      <c r="K5" s="378"/>
-      <c r="L5" s="378"/>
-      <c r="M5" s="378"/>
-      <c r="N5" s="378"/>
-      <c r="O5" s="367"/>
+      <c r="A5" s="376"/>
+      <c r="B5" s="378"/>
+      <c r="C5" s="367"/>
+      <c r="D5" s="367"/>
+      <c r="E5" s="367"/>
+      <c r="F5" s="367"/>
+      <c r="G5" s="367"/>
+      <c r="H5" s="367"/>
+      <c r="I5" s="367"/>
+      <c r="J5" s="367"/>
+      <c r="K5" s="367"/>
+      <c r="L5" s="367"/>
+      <c r="M5" s="367"/>
+      <c r="N5" s="367"/>
+      <c r="O5" s="369"/>
       <c r="P5" s="380"/>
       <c r="Q5" s="122" t="s">
         <v>38</v>
@@ -9321,6 +9321,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9337,9 +9340,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33349,8 +33349,8 @@
   </sheetPr>
   <dimension ref="A1:R219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -36948,21 +36948,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A1" s="422"/>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
-      <c r="F1" s="422"/>
-      <c r="G1" s="422"/>
-      <c r="H1" s="422"/>
-      <c r="I1" s="422"/>
+      <c r="A1" s="412"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="412"/>
+      <c r="F1" s="412"/>
+      <c r="G1" s="412"/>
+      <c r="H1" s="412"/>
+      <c r="I1" s="412"/>
     </row>
     <row r="2" spans="1:9" ht="24" thickBot="1">
-      <c r="A2" s="407" t="s">
+      <c r="A2" s="425" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="431"/>
+      <c r="B2" s="426"/>
       <c r="C2" s="305">
         <f>C83</f>
         <v>50500</v>
@@ -36975,10 +36975,10 @@
       <c r="I2" s="316"/>
     </row>
     <row r="3" spans="1:9" ht="24" thickBot="1">
-      <c r="A3" s="407" t="s">
+      <c r="A3" s="425" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="408"/>
+      <c r="B3" s="431"/>
       <c r="C3" s="305">
         <v>53000</v>
       </c>
@@ -36990,10 +36990,10 @@
       <c r="I3" s="316"/>
     </row>
     <row r="4" spans="1:9" ht="24" thickBot="1">
-      <c r="A4" s="407" t="s">
+      <c r="A4" s="425" t="s">
         <v>232</v>
       </c>
-      <c r="B4" s="408"/>
+      <c r="B4" s="431"/>
       <c r="C4" s="320">
         <f>C2-C3</f>
         <v>-2500</v>
@@ -37006,15 +37006,15 @@
       <c r="I4" s="316"/>
     </row>
     <row r="5" spans="1:9" ht="13.5" thickBot="1">
-      <c r="A5" s="422"/>
-      <c r="B5" s="422"/>
-      <c r="C5" s="422"/>
-      <c r="D5" s="422"/>
-      <c r="E5" s="422"/>
-      <c r="F5" s="422"/>
-      <c r="G5" s="422"/>
-      <c r="H5" s="422"/>
-      <c r="I5" s="422"/>
+      <c r="A5" s="412"/>
+      <c r="B5" s="412"/>
+      <c r="C5" s="412"/>
+      <c r="D5" s="412"/>
+      <c r="E5" s="412"/>
+      <c r="F5" s="412"/>
+      <c r="G5" s="412"/>
+      <c r="H5" s="412"/>
+      <c r="I5" s="412"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1">
       <c r="A6" s="257" t="s">
@@ -37054,13 +37054,13 @@
       </c>
       <c r="D7" s="292"/>
       <c r="E7" s="290"/>
-      <c r="G7" s="409">
+      <c r="G7" s="415">
         <v>44684</v>
       </c>
       <c r="H7" s="300" t="s">
         <v>189</v>
       </c>
-      <c r="I7" s="411">
+      <c r="I7" s="418">
         <v>15000</v>
       </c>
     </row>
@@ -37076,11 +37076,11 @@
       </c>
       <c r="D8" s="292"/>
       <c r="E8" s="290"/>
-      <c r="G8" s="409"/>
+      <c r="G8" s="415"/>
       <c r="H8" s="300" t="s">
         <v>190</v>
       </c>
-      <c r="I8" s="411"/>
+      <c r="I8" s="418"/>
     </row>
     <row r="9" spans="1:9" ht="15" thickBot="1">
       <c r="A9" s="284" t="s">
@@ -37094,11 +37094,11 @@
       </c>
       <c r="D9" s="292"/>
       <c r="E9" s="290"/>
-      <c r="G9" s="410"/>
+      <c r="G9" s="416"/>
       <c r="H9" s="301" t="s">
         <v>191</v>
       </c>
-      <c r="I9" s="412"/>
+      <c r="I9" s="419"/>
     </row>
     <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="A10" s="284" t="s">
@@ -37110,13 +37110,13 @@
       </c>
       <c r="D10" s="292"/>
       <c r="E10" s="290"/>
-      <c r="G10" s="409">
+      <c r="G10" s="415">
         <v>44684</v>
       </c>
       <c r="H10" s="300" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="411">
+      <c r="I10" s="418">
         <v>5500</v>
       </c>
     </row>
@@ -37130,11 +37130,11 @@
       </c>
       <c r="D11" s="292"/>
       <c r="E11" s="290"/>
-      <c r="G11" s="409"/>
+      <c r="G11" s="415"/>
       <c r="H11" s="300" t="s">
         <v>193</v>
       </c>
-      <c r="I11" s="411"/>
+      <c r="I11" s="418"/>
     </row>
     <row r="12" spans="1:9" ht="13.5" customHeight="1" thickBot="1">
       <c r="A12" s="284" t="s">
@@ -37146,11 +37146,11 @@
       </c>
       <c r="D12" s="292"/>
       <c r="E12" s="290"/>
-      <c r="G12" s="410"/>
+      <c r="G12" s="416"/>
       <c r="H12" s="301" t="s">
         <v>191</v>
       </c>
-      <c r="I12" s="412"/>
+      <c r="I12" s="419"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="A13" s="284"/>
@@ -37158,13 +37158,13 @@
       <c r="C13" s="284"/>
       <c r="D13" s="292"/>
       <c r="E13" s="290"/>
-      <c r="G13" s="409">
+      <c r="G13" s="415">
         <v>44684</v>
       </c>
       <c r="H13" s="300" t="s">
         <v>194</v>
       </c>
-      <c r="I13" s="411">
+      <c r="I13" s="418">
         <v>5000</v>
       </c>
     </row>
@@ -37174,11 +37174,11 @@
       <c r="C14" s="256"/>
       <c r="D14" s="292"/>
       <c r="E14" s="290"/>
-      <c r="G14" s="409"/>
+      <c r="G14" s="415"/>
       <c r="H14" s="300" t="s">
         <v>190</v>
       </c>
-      <c r="I14" s="411"/>
+      <c r="I14" s="418"/>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" s="284"/>
@@ -37186,11 +37186,11 @@
       <c r="C15" s="284"/>
       <c r="D15" s="292"/>
       <c r="E15" s="290"/>
-      <c r="G15" s="410"/>
+      <c r="G15" s="416"/>
       <c r="H15" s="301" t="s">
         <v>199</v>
       </c>
-      <c r="I15" s="412"/>
+      <c r="I15" s="419"/>
     </row>
     <row r="16" spans="1:9" ht="14.25">
       <c r="A16" s="256" t="s">
@@ -37204,13 +37204,13 @@
       </c>
       <c r="D16" s="292"/>
       <c r="E16" s="290"/>
-      <c r="G16" s="409">
+      <c r="G16" s="415">
         <v>44684</v>
       </c>
       <c r="H16" s="300" t="s">
         <v>195</v>
       </c>
-      <c r="I16" s="411">
+      <c r="I16" s="418">
         <v>3000</v>
       </c>
     </row>
@@ -37226,11 +37226,11 @@
       </c>
       <c r="D17" s="292"/>
       <c r="E17" s="290"/>
-      <c r="G17" s="409"/>
+      <c r="G17" s="415"/>
       <c r="H17" s="300" t="s">
         <v>196</v>
       </c>
-      <c r="I17" s="411"/>
+      <c r="I17" s="418"/>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1">
       <c r="A18" s="256" t="s">
@@ -37244,11 +37244,11 @@
       </c>
       <c r="D18" s="292"/>
       <c r="E18" s="290"/>
-      <c r="G18" s="410"/>
+      <c r="G18" s="416"/>
       <c r="H18" s="301" t="s">
         <v>197</v>
       </c>
-      <c r="I18" s="411"/>
+      <c r="I18" s="418"/>
     </row>
     <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="256" t="s">
@@ -37262,13 +37262,13 @@
       </c>
       <c r="D19" s="292"/>
       <c r="E19" s="290"/>
-      <c r="G19" s="409" t="s">
+      <c r="G19" s="415" t="s">
         <v>203</v>
       </c>
       <c r="H19" s="300" t="s">
         <v>195</v>
       </c>
-      <c r="I19" s="425">
+      <c r="I19" s="417">
         <v>18000</v>
       </c>
     </row>
@@ -37284,11 +37284,11 @@
       </c>
       <c r="D20" s="292"/>
       <c r="E20" s="290"/>
-      <c r="G20" s="409"/>
+      <c r="G20" s="415"/>
       <c r="H20" s="300" t="s">
         <v>201</v>
       </c>
-      <c r="I20" s="411"/>
+      <c r="I20" s="418"/>
     </row>
     <row r="21" spans="1:9" ht="15" thickBot="1">
       <c r="A21" s="256" t="s">
@@ -37302,11 +37302,11 @@
       </c>
       <c r="D21" s="292"/>
       <c r="E21" s="290"/>
-      <c r="G21" s="410"/>
+      <c r="G21" s="416"/>
       <c r="H21" s="301" t="s">
         <v>202</v>
       </c>
-      <c r="I21" s="412"/>
+      <c r="I21" s="419"/>
     </row>
     <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="256" t="s">
@@ -37320,13 +37320,13 @@
       </c>
       <c r="D22" s="292"/>
       <c r="E22" s="290"/>
-      <c r="G22" s="409" t="s">
+      <c r="G22" s="415" t="s">
         <v>203</v>
       </c>
       <c r="H22" s="300" t="s">
         <v>195</v>
       </c>
-      <c r="I22" s="411">
+      <c r="I22" s="418">
         <v>7500</v>
       </c>
     </row>
@@ -37342,11 +37342,11 @@
       </c>
       <c r="D23" s="292"/>
       <c r="E23" s="290"/>
-      <c r="G23" s="409"/>
+      <c r="G23" s="415"/>
       <c r="H23" s="300" t="s">
         <v>204</v>
       </c>
-      <c r="I23" s="411"/>
+      <c r="I23" s="418"/>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1">
       <c r="A24" s="256" t="s">
@@ -37360,11 +37360,11 @@
       </c>
       <c r="D24" s="292"/>
       <c r="E24" s="290"/>
-      <c r="G24" s="410"/>
+      <c r="G24" s="416"/>
       <c r="H24" s="301" t="s">
         <v>202</v>
       </c>
-      <c r="I24" s="412"/>
+      <c r="I24" s="419"/>
     </row>
     <row r="25" spans="1:9" ht="14.25">
       <c r="A25" s="256" t="s">
@@ -37378,13 +37378,13 @@
       </c>
       <c r="D25" s="292"/>
       <c r="E25" s="290"/>
-      <c r="G25" s="409" t="s">
+      <c r="G25" s="415" t="s">
         <v>203</v>
       </c>
       <c r="H25" s="300" t="s">
         <v>205</v>
       </c>
-      <c r="I25" s="411">
+      <c r="I25" s="418">
         <v>1000</v>
       </c>
     </row>
@@ -37400,11 +37400,11 @@
       </c>
       <c r="D26" s="292"/>
       <c r="E26" s="290"/>
-      <c r="G26" s="409"/>
+      <c r="G26" s="415"/>
       <c r="H26" s="300" t="s">
         <v>206</v>
       </c>
-      <c r="I26" s="411"/>
+      <c r="I26" s="418"/>
     </row>
     <row r="27" spans="1:9" ht="15" thickBot="1">
       <c r="A27" s="256" t="s">
@@ -37418,11 +37418,11 @@
       </c>
       <c r="D27" s="292"/>
       <c r="E27" s="290"/>
-      <c r="G27" s="410"/>
+      <c r="G27" s="416"/>
       <c r="H27" s="301" t="s">
         <v>207</v>
       </c>
-      <c r="I27" s="412"/>
+      <c r="I27" s="419"/>
     </row>
     <row r="28" spans="1:9" ht="14.25">
       <c r="A28" s="256" t="s">
@@ -37436,13 +37436,13 @@
       </c>
       <c r="D28" s="292"/>
       <c r="E28" s="290"/>
-      <c r="G28" s="426" t="s">
+      <c r="G28" s="420" t="s">
         <v>203</v>
       </c>
       <c r="H28" s="303" t="s">
         <v>189</v>
       </c>
-      <c r="I28" s="428">
+      <c r="I28" s="422">
         <v>-2000</v>
       </c>
     </row>
@@ -37462,11 +37462,11 @@
       <c r="E29" s="290">
         <v>357484290824718</v>
       </c>
-      <c r="G29" s="426"/>
+      <c r="G29" s="420"/>
       <c r="H29" s="303" t="s">
         <v>208</v>
       </c>
-      <c r="I29" s="429"/>
+      <c r="I29" s="423"/>
     </row>
     <row r="30" spans="1:9" ht="15" thickBot="1">
       <c r="A30" s="256" t="s">
@@ -37482,11 +37482,11 @@
         <v>165</v>
       </c>
       <c r="E30" s="290"/>
-      <c r="G30" s="427"/>
+      <c r="G30" s="421"/>
       <c r="H30" s="304" t="s">
         <v>209</v>
       </c>
-      <c r="I30" s="430"/>
+      <c r="I30" s="424"/>
     </row>
     <row r="31" spans="1:9" ht="16.5" thickBot="1">
       <c r="A31" s="256" t="s">
@@ -37502,10 +37502,10 @@
         <v>167</v>
       </c>
       <c r="E31" s="290"/>
-      <c r="G31" s="423" t="s">
+      <c r="G31" s="413" t="s">
         <v>200</v>
       </c>
-      <c r="H31" s="424"/>
+      <c r="H31" s="414"/>
       <c r="I31" s="317">
         <f>SUM(I7:I30)</f>
         <v>53000</v>
@@ -37525,10 +37525,10 @@
         <v>175</v>
       </c>
       <c r="E32" s="290"/>
-      <c r="G32" s="420" t="s">
+      <c r="G32" s="429" t="s">
         <v>229</v>
       </c>
-      <c r="H32" s="421"/>
+      <c r="H32" s="430"/>
       <c r="I32" s="318">
         <f>I45</f>
         <v>22500</v>
@@ -37550,10 +37550,10 @@
       <c r="E33" s="290">
         <v>354551892947593</v>
       </c>
-      <c r="G33" s="418" t="s">
+      <c r="G33" s="427" t="s">
         <v>230</v>
       </c>
-      <c r="H33" s="419"/>
+      <c r="H33" s="428"/>
       <c r="I33" s="319">
         <f>I31-I32</f>
         <v>30500</v>
@@ -37601,11 +37601,11 @@
       <c r="E36" s="290">
         <v>357484290920474</v>
       </c>
-      <c r="G36" s="415" t="s">
+      <c r="G36" s="407" t="s">
         <v>261</v>
       </c>
-      <c r="H36" s="416"/>
-      <c r="I36" s="417"/>
+      <c r="H36" s="408"/>
+      <c r="I36" s="409"/>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="256" t="s">
@@ -37799,10 +37799,10 @@
       <c r="E45" s="290">
         <v>354551892934849</v>
       </c>
-      <c r="G45" s="413" t="s">
+      <c r="G45" s="410" t="s">
         <v>93</v>
       </c>
-      <c r="H45" s="414"/>
+      <c r="H45" s="411"/>
       <c r="I45" s="328">
         <f>SUM(I38:I44)</f>
         <v>22500</v>
@@ -37828,11 +37828,11 @@
       <c r="C48" s="256"/>
       <c r="D48" s="292"/>
       <c r="E48" s="290"/>
-      <c r="G48" s="415" t="s">
+      <c r="G48" s="407" t="s">
         <v>267</v>
       </c>
-      <c r="H48" s="416"/>
-      <c r="I48" s="417"/>
+      <c r="H48" s="408"/>
+      <c r="I48" s="409"/>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" s="256"/>
@@ -37938,10 +37938,10 @@
       <c r="C57" s="256"/>
       <c r="D57" s="292"/>
       <c r="E57" s="290"/>
-      <c r="G57" s="413" t="s">
+      <c r="G57" s="410" t="s">
         <v>93</v>
       </c>
-      <c r="H57" s="414"/>
+      <c r="H57" s="411"/>
       <c r="I57" s="328">
         <f>SUM(I50:I56)</f>
         <v>13000</v>
@@ -38137,6 +38137,18 @@
     <sortCondition ref="A8"/>
   </sortState>
   <mergeCells count="28">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="G32:H32"/>
     <mergeCell ref="G48:I48"/>
     <mergeCell ref="G57:H57"/>
     <mergeCell ref="A1:I1"/>
@@ -38153,18 +38165,6 @@
     <mergeCell ref="I28:I30"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="I13:I15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38190,18 +38190,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.5" thickBot="1">
-      <c r="A1" s="422"/>
-      <c r="B1" s="422"/>
-      <c r="C1" s="422"/>
-      <c r="D1" s="422"/>
-      <c r="E1" s="422"/>
-      <c r="F1" s="422"/>
+      <c r="A1" s="412"/>
+      <c r="B1" s="412"/>
+      <c r="C1" s="412"/>
+      <c r="D1" s="412"/>
+      <c r="E1" s="412"/>
+      <c r="F1" s="412"/>
     </row>
     <row r="2" spans="1:6" ht="24" thickBot="1">
-      <c r="A2" s="407" t="s">
+      <c r="A2" s="425" t="s">
         <v>211</v>
       </c>
-      <c r="B2" s="431"/>
+      <c r="B2" s="426"/>
       <c r="C2" s="305">
         <f>C81</f>
         <v>9000</v>
@@ -38211,12 +38211,12 @@
       <c r="F2" s="316"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="422"/>
-      <c r="B3" s="422"/>
-      <c r="C3" s="422"/>
-      <c r="D3" s="422"/>
-      <c r="E3" s="422"/>
-      <c r="F3" s="422"/>
+      <c r="A3" s="412"/>
+      <c r="B3" s="412"/>
+      <c r="C3" s="412"/>
+      <c r="D3" s="412"/>
+      <c r="E3" s="412"/>
+      <c r="F3" s="412"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="257" t="s">
